--- a/Q&A.xlsx
+++ b/Q&A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Collage\data-analysis\power BI\Bi-project 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Collage\data-analysis\power BI\Bi-project 2\SkyLine-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF128DF-5181-4F15-A0E9-333D99F68F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A00CAD-C9C7-4E47-85D3-28D931B02562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>1- What's the current churn rate and what is the most prevalent churn category?</t>
   </si>
@@ -82,9 +82,6 @@
     <t>yes  -WV</t>
   </si>
   <si>
-    <t>yes-24.54% per adult -38.46% per aged-23%per youth</t>
-  </si>
-  <si>
     <t>group 6</t>
   </si>
   <si>
@@ -94,10 +91,19 @@
     <t xml:space="preserve"> 34.31% churn rate per international coustomers </t>
   </si>
   <si>
-    <t>yes u will find strong negative corrolation between number of months and rate specially in direct debit</t>
-  </si>
-  <si>
     <t>3112 Call -53.90%</t>
+  </si>
+  <si>
+    <t>yes-23%per youth -24.54% per adult -38.46% per aged (rate incresses when customer age incresses )</t>
+  </si>
+  <si>
+    <t>false as unlimited data plan customers has 32.11% churn rate while others has 16.11% and people on unlimited plan consume more by average 5.65</t>
+  </si>
+  <si>
+    <t>yes,you will find strong negative corrolation between number of months and rate (plot graph) specially in direct debit</t>
+  </si>
+  <si>
+    <t>You will find that customers with no intl plan are the most customers had a high churn rate and calls customer service  ---- most reasons that make customers  churns was competitor had better offers or devices then support attitude so we need to combaire or our offers and devices and check the soft skills and attitude of supports most of those are monthly paid</t>
   </si>
 </sst>
 </file>
@@ -423,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -462,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -470,20 +476,23 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -491,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -502,9 +511,12 @@
         <v>0.50280000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.3">
@@ -512,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
